--- a/Assets/Excel/StageRewardSO.xlsx
+++ b/Assets/Excel/StageRewardSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\TeamProject_CheerUpMyHero\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06245ED2-3078-4A2C-AD94-90818E6BF484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8416735-35EA-4048-AB3D-795D1E0F571C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{CF32E9D7-666D-4295-A8BB-9CE9D0B7EEA3}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/StageRewardSO.xlsx
+++ b/Assets/Excel/StageRewardSO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\User\TeamProject_CheerUpMyHero\Assets\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY_PROJECT\TeamProject_CheerUpMyHero\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8416735-35EA-4048-AB3D-795D1E0F571C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4F1306-0F05-470B-930B-6F3266A4484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{CF32E9D7-666D-4295-A8BB-9CE9D0B7EEA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CF32E9D7-666D-4295-A8BB-9CE9D0B7EEA3}"/>
   </bookViews>
   <sheets>
     <sheet name="StageReward" sheetId="1" r:id="rId1"/>
@@ -366,9 +366,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -406,7 +406,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -512,7 +512,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -654,7 +654,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBF67AA-DB15-4EEA-9140-469811A19282}">
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -698,16 +698,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -718,16 +718,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -738,16 +738,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -758,16 +758,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -778,16 +778,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -798,16 +798,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -818,16 +818,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -838,16 +838,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -858,16 +858,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -878,16 +878,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -898,16 +898,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -918,16 +918,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -938,16 +938,16 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -958,16 +958,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -978,16 +978,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -998,16 +998,16 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1018,16 +1018,16 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1038,16 +1038,16 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1058,16 +1058,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1078,16 +1078,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1098,16 +1098,16 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1118,16 +1118,16 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1138,16 +1138,16 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>250</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1158,16 +1158,16 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1178,16 +1178,16 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>270</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>270</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>270</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1198,16 +1198,16 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>280</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1218,16 +1218,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>290</v>
       </c>
       <c r="F28">
-        <v>9</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1238,16 +1238,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1258,16 +1258,16 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>320</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>320</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>320</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1278,16 +1278,16 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>330</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>330</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>330</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1298,16 +1298,16 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>340</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>340</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>340</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1318,16 +1318,16 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1338,16 +1338,16 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1358,16 +1358,16 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>370</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1378,16 +1378,16 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>8</v>
+        <v>380</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>380</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>380</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1398,16 +1398,16 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="D37">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1418,16 +1418,16 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>410</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1438,16 +1438,16 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>420</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>420</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>420</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1458,16 +1458,16 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>430</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>430</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>430</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1478,16 +1478,16 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>440</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>440</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>440</v>
       </c>
       <c r="F41">
-        <v>4</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1498,16 +1498,16 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1518,16 +1518,16 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>460</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>460</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>460</v>
       </c>
       <c r="F43">
-        <v>6</v>
+        <v>460</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1538,16 +1538,16 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>470</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1558,16 +1558,16 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="E45">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1578,16 +1578,16 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>490</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>490</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>490</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1598,16 +1598,16 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1618,16 +1618,16 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1638,16 +1638,16 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1658,16 +1658,16 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D50">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1678,16 +1678,16 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D51">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1698,16 +1698,16 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D52">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1718,16 +1718,16 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1738,16 +1738,16 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D54">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1758,16 +1758,16 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E55">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1778,16 +1778,16 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1798,16 +1798,16 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1818,16 +1818,16 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1838,16 +1838,16 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D59">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E59">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1858,16 +1858,16 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1878,16 +1878,16 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F61">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1898,16 +1898,16 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E62">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F62">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1918,16 +1918,16 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1938,16 +1938,16 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E64">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F64">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1958,16 +1958,16 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1978,16 +1978,16 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1998,16 +1998,16 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2018,16 +2018,16 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2038,16 +2038,16 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2058,16 +2058,16 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E70">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2078,16 +2078,16 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D71">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E71">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F71">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2098,16 +2098,16 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E72">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F72">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2118,16 +2118,16 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D73">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E73">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F73">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2138,16 +2138,16 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2158,16 +2158,16 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2178,16 +2178,16 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2198,16 +2198,16 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E77">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2218,16 +2218,16 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D78">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E78">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2238,16 +2238,16 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E79">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2258,16 +2258,16 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D80">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E80">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F80">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2278,16 +2278,16 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D81">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E81">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F81">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2298,16 +2298,16 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D82">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="E82">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F82">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
